--- a/medicine/Enfance/Laurence_Yep/Laurence_Yep.xlsx
+++ b/medicine/Enfance/Laurence_Yep/Laurence_Yep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurence Yep (chinois : 葉祥添 ; pinyin : Yè Xiángtiān), né le 14 juin 1948 à San Francisco, est un écrivain sino-américain de science-fiction et de littérature d'enfance et de jeunesse. En 2005, il reçoit la médaille Laura Ingalls Wilder Medal[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurence Yep (chinois : 葉祥添 ; pinyin : Yè Xiángtiān), né le 14 juin 1948 à San Francisco, est un écrivain sino-américain de science-fiction et de littérature d'enfance et de jeunesse. En 2005, il reçoit la médaille Laura Ingalls Wilder Medal,.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Publications sélectives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lady of Ch'iao Kuo (en): Warrior of the South, Southern China, 531 A.D. (2001)</t>
         </is>
